--- a/Task 15.xlsx
+++ b/Task 15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\icnas3.cc.ic.ac.uk\mah121\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Lab\second-year-radioactivity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D68F97D-DDDD-4E56-8DDC-5F2716F6F1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F99DF01-4DD5-4A93-A63E-37725A6B60D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C4D527E3-8FD5-46DC-862E-C53D60B70632}"/>
+    <workbookView xWindow="8280" yWindow="450" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C4D527E3-8FD5-46DC-862E-C53D60B70632}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>ruler error in m</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Data Recording</t>
+  </si>
+  <si>
+    <t>relative error</t>
   </si>
 </sst>
 </file>
@@ -190,6 +193,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>with absolute</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -266,6 +294,126 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="1"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$3:$F$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.40975602497095764</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.72690026826243515</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.90199778270237452</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.240283838482144</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.7684739183827394</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.6101478193010728</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.1915254960871429</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.8623458910481108</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$3:$F$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.40975602497095764</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.72690026826243515</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.90199778270237452</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.240283838482144</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.7684739183827394</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.6101478193010728</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.1915254960871429</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.8623458910481108</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$10</c:f>
@@ -493,7 +641,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
@@ -532,7 +680,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$3:$C$10</c15:sqref>
@@ -570,7 +718,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-3A16-4951-9D70-FD27714359F0}"/>
                   </c:ext>
@@ -606,7 +754,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
@@ -645,7 +793,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$3:$D$10</c15:sqref>
@@ -683,7 +831,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-3A16-4951-9D70-FD27714359F0}"/>
                   </c:ext>
@@ -915,6 +1063,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>WITH ABSOLUTE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -946,7 +1119,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8247594050743659E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.87437751531058616"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -975,21 +1158,165 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$15:$F$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="17"/>
+                  <c:pt idx="0">
+                    <c:v>0.44520750773543788</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.42421837583961403</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.41463404780601415</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.38470320446416872</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42565296850838485</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.57399073851413318</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.73199433136946157</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.9016417558558264</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.0931434112462191</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.2586025383734134</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.4134102031494129</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.5901493619210723</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.7538613300196431</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.9550209402164627</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.1106293084821881</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.2746623841247966</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.4263260008498442</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$15:$F$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="17"/>
+                  <c:pt idx="0">
+                    <c:v>0.44520750773543788</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.42421837583961403</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.41463404780601415</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.38470320446416872</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.42565296850838485</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.57399073851413318</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.73199433136946157</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.9016417558558264</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.0931434112462191</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.2586025383734134</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.4134102031494129</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.5901493619210723</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.7538613300196431</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.9550209402164627</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2.1106293084821881</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2.2746623841247966</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2.4263260008498442</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$15:$A$31</c:f>
@@ -1323,7 +1650,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$15:$A$31</c15:sqref>
@@ -1389,7 +1716,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$15:$C$31</c15:sqref>
@@ -1454,7 +1781,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-8337-4115-B8E9-B9ADBA8BFC1E}"/>
                   </c:ext>
@@ -1489,7 +1816,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$15:$A$31</c15:sqref>
@@ -1555,7 +1882,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$15:$D$31</c15:sqref>
@@ -1620,7 +1947,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8337-4115-B8E9-B9ADBA8BFC1E}"/>
                   </c:ext>
@@ -1837,6 +2164,2240 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>WITH RELATIVE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$3:$G$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>3.5630958693126741E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.678908345800273E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.10022197585581938</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.1291962331752233</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.14147791347061914</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.22363164156959345</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22362505062113708</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.22362077273813361</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$3:$G$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>3.5630958693126741E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.678908345800273E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.10022197585581938</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.1291962331752233</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.14147791347061914</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.22363164156959345</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.22362505062113708</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.22362077273813361</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-107A-409A-9B73-213D766E9EF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="640128144"/>
+        <c:axId val="640137000"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$B$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>11500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>600</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>200</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-107A-409A-9B73-213D766E9EF4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$3:$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-107A-409A-9B73-213D766E9EF4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$3:$D$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>1150</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>320</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-107A-409A-9B73-213D766E9EF4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$3:$F$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="8"/>
+                      <c:pt idx="0">
+                        <c:v>0.40975602497095764</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.72690026826243515</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.90199778270237452</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.240283838482144</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.7684739183827394</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.6101478193010728</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.1915254960871429</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.8623458910481108</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-107A-409A-9B73-213D766E9EF4}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="640128144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640137000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="640137000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="640128144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>WITH RELATIVE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$G$15:$G$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="17"/>
+                  <c:pt idx="0">
+                    <c:v>0.10045023774975358</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.1921371761433223E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3128151425630749E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.4961497185170227E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.4941140084418384E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.3304531470916709E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.6417724530998289E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.0229297007837185E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.2867704989425306E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.7664509845069733E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.11342180642557015</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.12750145225115014</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.14265478508971341</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.15481521288326242</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.17063036060035799</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.18579280734664544</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.20199184156259115</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$G$15:$G$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="17"/>
+                  <c:pt idx="0">
+                    <c:v>0.10045023774975358</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.1921371761433223E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.3128151425630749E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.4961497185170227E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.4941140084418384E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.3304531470916709E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.6417724530998289E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.0229297007837185E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.2867704989425306E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9.7664509845069733E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.11342180642557015</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.12750145225115014</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.14265478508971341</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.15481521288326242</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.17063036060035799</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.18579280734664544</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.20199184156259115</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$15:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4.4321200000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1704000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6140000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.003625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.182000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.25475</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.974545454545458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.838541666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.191428571428572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.886999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.461538461538463</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.471617647058824</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.294444444444444</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.628093220338986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.3696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.243005617977531</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.011999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DA86-4F31-9DEA-92D916F137E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="648109768"/>
+        <c:axId val="648122888"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$15:$A$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.4999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$15:$B$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>110803</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>51065</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>38456</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>19562</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12182</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5891</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3568</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2465</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2052</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2104</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2025</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2094</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2213</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2463</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2577</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2579</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2574</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-DA86-4F31-9DEA-92D916F137E6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$15:$A$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.4999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$15:$C$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>105</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-DA86-4F31-9DEA-92D916F137E6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$15:$A$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.4999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$15:$D$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>11080.3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5106.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3845.6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1956.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1218.2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>589.1</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>324.36363636363637</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>205.41666666666666</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>146.57142857142858</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>105.2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>77.884615384615387</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>61.588235294117645</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>49.177777777777777</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>41.745762711864408</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>34.36</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>28.977528089887642</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>24.514285714285716</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-DA86-4F31-9DEA-92D916F137E6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$15:$A$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.04</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7.4999999999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$15:$F$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="17"/>
+                      <c:pt idx="0">
+                        <c:v>0.44520750773543788</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.42421837583961403</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.41463404780601415</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.38470320446416872</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.42565296850838485</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.57399073851413318</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.73199433136946157</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.9016417558558264</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.0931434112462191</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.2586025383734134</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.4134102031494129</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.5901493619210723</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.7538613300196431</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.9550209402164627</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.1106293084821881</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.2746623841247966</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.4263260008498442</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-DA86-4F31-9DEA-92D916F137E6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="648109768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648122888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="648122888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="648109768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
@@ -1914,6 +4475,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
   <cs:axisTitle>
@@ -2950,20 +5591,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2991,15 +6664,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3019,6 +6692,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>252412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C20CF8-9A1E-443F-B0AA-ADD44E20E837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A320A2D5-275F-4600-81BF-AE241F5D1D41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3327,7 +7072,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F10"/>
+      <selection activeCell="A14" sqref="A14:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3370,6 +7115,9 @@
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -3390,8 +7138,12 @@
         <v>11.500000000000002</v>
       </c>
       <c r="F3" s="1">
-        <f>((1/B3)+(4*($I$1^2))/(A3^2))^0.5</f>
-        <v>2.2067091374694817E-2</v>
+        <f>((((A3)^4)*B3/C3)+((0.001)^2)*4*(B3^2)*(A3^2)/(C3^2))^0.5</f>
+        <v>0.40975602497095764</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3*C3/(B3*A3^2)</f>
+        <v>3.5630958693126741E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3413,8 +7165,12 @@
         <v>12.800000000000002</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F10" si="2">((1/B4)+(4*($I$1^2))/(A4^2))^0.5</f>
-        <v>2.0310096011589902E-2</v>
+        <f t="shared" ref="F4:F10" si="2">((((A4)^4)*B4/C4)+((0.001)^2)*4*(B4^2)*(A4^2)/(C4^2))^0.5</f>
+        <v>0.72690026826243515</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G10" si="3">F4*C4/(B4*A4^2)</f>
+        <v>5.678908345800273E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3437,7 +7193,11 @@
       </c>
       <c r="F5" s="1">
         <f t="shared" si="2"/>
-        <v>3.2317865716108861E-2</v>
+        <v>0.90199778270237452</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10022197585581938</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3460,7 +7220,11 @@
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>4.1129875597510225E-2</v>
+        <v>1.240283838482144</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1291962331752233</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3483,7 +7247,11 @@
       </c>
       <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>4.48998886412873E-2</v>
+        <v>1.7684739183827394</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14147791347061914</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3506,7 +7274,11 @@
       </c>
       <c r="F8" s="1">
         <f t="shared" si="2"/>
-        <v>7.0789201938651E-2</v>
+        <v>1.6101478193010728</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.22363164156959345</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3529,7 +7301,11 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>7.0768377580004774E-2</v>
+        <v>2.1915254960871429</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.22362505062113708</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3552,7 +7328,11 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="2"/>
-        <v>7.0754858490424524E-2</v>
+        <v>2.8623458910481108</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.22362077273813361</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3597,16 +7377,20 @@
         <v>10</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D18" si="3">B15/C15</f>
+        <f t="shared" ref="D15:D18" si="4">B15/C15</f>
         <v>11080.3</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ref="E15:E18" si="4">D15*A15^2</f>
+        <f t="shared" ref="E15:E18" si="5">D15*A15^2</f>
         <v>4.4321200000000003</v>
       </c>
-      <c r="F15" s="8">
-        <f t="shared" ref="F15:F18" si="5">((1/B15)+(4*($I$1^2))/(A15^2))^0.5</f>
-        <v>0.10004511495519509</v>
+      <c r="F15" s="1">
+        <f>((((A15)^4)*B15/C15)+((0.001)^2)*4*(B15^2)*(A15^2)/(C15^2))^0.5</f>
+        <v>0.44520750773543788</v>
+      </c>
+      <c r="G15" s="1">
+        <f>F15*C15/(B15*A15^2)</f>
+        <v>0.10045023774975358</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -3620,19 +7404,23 @@
         <v>10</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5106.5</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.1704000000000008</v>
       </c>
-      <c r="F16" s="8">
-        <f t="shared" si="5"/>
-        <v>5.0195446850873786E-2</v>
+      <c r="F16" s="1">
+        <f t="shared" ref="F16:F31" si="6">((((A16)^4)*B16/C16)+((0.001)^2)*4*(B16^2)*(A16^2)/(C16^2))^0.5</f>
+        <v>0.42421837583961403</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:G31" si="7">F16*C16/(B16*A16^2)</f>
+        <v>5.1921371761433223E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>0.05</v>
       </c>
@@ -3643,19 +7431,23 @@
         <v>10</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3845.6</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6140000000000008</v>
       </c>
-      <c r="F17" s="8">
-        <f t="shared" si="5"/>
-        <v>4.0323736738293654E-2</v>
+      <c r="F17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.41463404780601415</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3128151425630749E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -3666,19 +7458,23 @@
         <v>10</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1956.2</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11.003625</v>
       </c>
-      <c r="F18" s="8">
-        <f t="shared" si="5"/>
-        <v>2.760852456294734E-2</v>
+      <c r="F18" s="1">
+        <f t="shared" si="6"/>
+        <v>0.38470320446416872</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4961497185170227E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>0.1</v>
       </c>
@@ -3689,19 +7485,23 @@
         <v>10</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:D31" si="6">B19/C19</f>
+        <f t="shared" ref="D19:D31" si="8">B19/C19</f>
         <v>1218.2</v>
       </c>
       <c r="E19" s="1">
         <f>D19*A19^2</f>
         <v>12.182000000000002</v>
       </c>
-      <c r="F19" s="8">
-        <f>((1/B19)+(4*($I$1^2))/(A19^2))^0.5</f>
-        <v>2.1956509901163591E-2</v>
+      <c r="F19" s="1">
+        <f t="shared" si="6"/>
+        <v>0.42565296850838485</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4941140084418384E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>0.15</v>
       </c>
@@ -3712,19 +7512,23 @@
         <v>10</v>
       </c>
       <c r="D20" s="1">
+        <f t="shared" si="8"/>
+        <v>589.1</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ref="E20:E25" si="9">D20*A20^2</f>
+        <v>13.25475</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="6"/>
-        <v>589.1</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" ref="E20:E25" si="7">D20*A20^2</f>
-        <v>13.25475</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ref="F20:F31" si="8">((1/B20)+(4*($I$1^2))/(A20^2))^0.5</f>
-        <v>1.8642109445863725E-2</v>
+        <v>0.57399073851413318</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3304531470916709E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>0.2</v>
       </c>
@@ -3735,19 +7539,23 @@
         <v>11</v>
       </c>
       <c r="D21" s="1">
+        <f t="shared" si="8"/>
+        <v>324.36363636363637</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="9"/>
+        <v>12.974545454545458</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="6"/>
-        <v>324.36363636363637</v>
-      </c>
-      <c r="E21" s="1">
+        <v>0.73199433136946157</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="7"/>
-        <v>12.974545454545458</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="8"/>
-        <v>1.9500488668132501E-2</v>
+        <v>5.6417724530998289E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>0.25</v>
       </c>
@@ -3758,19 +7566,23 @@
         <v>12</v>
       </c>
       <c r="D22" s="1">
+        <f t="shared" si="8"/>
+        <v>205.41666666666666</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="9"/>
+        <v>12.838541666666666</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="6"/>
-        <v>205.41666666666666</v>
-      </c>
-      <c r="E22" s="1">
+        <v>0.9016417558558264</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="7"/>
-        <v>12.838541666666666</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="8"/>
-        <v>2.1672090650986679E-2</v>
+        <v>7.0229297007837185E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>0.3</v>
       </c>
@@ -3781,19 +7593,23 @@
         <v>14</v>
       </c>
       <c r="D23" s="1">
+        <f t="shared" si="8"/>
+        <v>146.57142857142858</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="9"/>
+        <v>13.191428571428572</v>
+      </c>
+      <c r="F23" s="1">
         <f t="shared" si="6"/>
-        <v>146.57142857142858</v>
-      </c>
-      <c r="E23" s="1">
+        <v>1.0931434112462191</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="7"/>
-        <v>13.191428571428572</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="8"/>
-        <v>2.306022287711678E-2</v>
+        <v>8.2867704989425306E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>0.35</v>
       </c>
@@ -3804,19 +7620,23 @@
         <v>20</v>
       </c>
       <c r="D24" s="1">
+        <f t="shared" si="8"/>
+        <v>105.2</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="9"/>
+        <v>12.886999999999999</v>
+      </c>
+      <c r="F24" s="1">
         <f t="shared" si="6"/>
-        <v>105.2</v>
-      </c>
-      <c r="E24" s="1">
+        <v>1.2586025383734134</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="7"/>
-        <v>12.886999999999999</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="8"/>
-        <v>2.2537485048850312E-2</v>
+        <v>9.7664509845069733E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>0.4</v>
       </c>
@@ -3827,19 +7647,23 @@
         <v>26</v>
       </c>
       <c r="D25" s="1">
+        <f t="shared" si="8"/>
+        <v>77.884615384615387</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="9"/>
+        <v>12.461538461538463</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="6"/>
-        <v>77.884615384615387</v>
-      </c>
-      <c r="E25" s="1">
+        <v>1.4134102031494129</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="7"/>
-        <v>12.461538461538463</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="8"/>
-        <v>2.2777777777777779E-2</v>
+        <v>0.11342180642557015</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>0.45</v>
       </c>
@@ -3850,19 +7674,23 @@
         <v>34</v>
       </c>
       <c r="D26" s="1">
+        <f t="shared" si="8"/>
+        <v>61.588235294117645</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26:E31" si="10">D26*A26^2</f>
+        <v>12.471617647058824</v>
+      </c>
+      <c r="F26" s="1">
         <f t="shared" si="6"/>
-        <v>61.588235294117645</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" ref="E26:E31" si="9">D26*A26^2</f>
-        <v>12.471617647058824</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="8"/>
-        <v>2.2300403701175833E-2</v>
+        <v>1.5901493619210723</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="7"/>
+        <v>0.12750145225115014</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>0.5</v>
       </c>
@@ -3873,19 +7701,23 @@
         <v>45</v>
       </c>
       <c r="D27" s="1">
+        <f t="shared" si="8"/>
+        <v>49.177777777777777</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="10"/>
+        <v>12.294444444444444</v>
+      </c>
+      <c r="F27" s="1">
         <f t="shared" si="6"/>
-        <v>49.177777777777777</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="9"/>
-        <v>12.294444444444444</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="8"/>
-        <v>2.1630424924676157E-2</v>
+        <v>1.7538613300196431</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="7"/>
+        <v>0.14265478508971341</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>0.55000000000000004</v>
       </c>
@@ -3896,19 +7728,23 @@
         <v>59</v>
       </c>
       <c r="D28" s="1">
+        <f t="shared" si="8"/>
+        <v>41.745762711864408</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="10"/>
+        <v>12.628093220338986</v>
+      </c>
+      <c r="F28" s="1">
         <f t="shared" si="6"/>
-        <v>41.745762711864408</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="9"/>
-        <v>12.628093220338986</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="8"/>
-        <v>2.0475157452199876E-2</v>
+        <v>1.9550209402164627</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="7"/>
+        <v>0.15481521288326242</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>0.6</v>
       </c>
@@ -3919,19 +7755,23 @@
         <v>75</v>
       </c>
       <c r="D29" s="1">
+        <f t="shared" si="8"/>
+        <v>34.36</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="10"/>
+        <v>12.3696</v>
+      </c>
+      <c r="F29" s="1">
         <f t="shared" si="6"/>
-        <v>34.36</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="9"/>
-        <v>12.3696</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="8"/>
-        <v>1.9978969670074054E-2</v>
+        <v>2.1106293084821881</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="7"/>
+        <v>0.17063036060035799</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>0.65</v>
       </c>
@@ -3942,19 +7782,23 @@
         <v>89</v>
       </c>
       <c r="D30" s="1">
+        <f t="shared" si="8"/>
+        <v>28.977528089887642</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="10"/>
+        <v>12.243005617977531</v>
+      </c>
+      <c r="F30" s="1">
         <f t="shared" si="6"/>
-        <v>28.977528089887642</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="9"/>
-        <v>12.243005617977531</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" si="8"/>
-        <v>1.9930244465489699E-2</v>
+        <v>2.2746623841247966</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="7"/>
+        <v>0.18579280734664544</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>0.7</v>
       </c>
@@ -3965,19 +7809,23 @@
         <v>105</v>
       </c>
       <c r="D31" s="1">
+        <f t="shared" si="8"/>
+        <v>24.514285714285716</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="10"/>
+        <v>12.011999999999999</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="6"/>
-        <v>24.514285714285716</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="9"/>
-        <v>12.011999999999999</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="8"/>
-        <v>1.9916416690923869E-2</v>
+        <v>2.4263260008498442</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="7"/>
+        <v>0.20199184156259115</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="F32" s="8"/>
     </row>
@@ -4034,302 +7882,646 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711FBC4D-91B1-4D97-AA01-30C3E1C4BB86}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>0.1</v>
       </c>
-      <c r="B1">
-        <v>11.5</v>
-      </c>
-      <c r="C1">
-        <v>2.2067091374694817E-2</v>
+      <c r="B2">
+        <v>11500</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1150</v>
+      </c>
+      <c r="E2">
+        <v>11.500000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.40975602497095764</v>
+      </c>
+      <c r="G2">
+        <v>3.5630958693126741E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>0.2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>3200</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>320</v>
+      </c>
+      <c r="E3">
         <v>12.800000000000002</v>
       </c>
-      <c r="C2">
-        <v>2.0310096011589902E-2</v>
+      <c r="F3">
+        <v>0.72690026826243515</v>
+      </c>
+      <c r="G3">
+        <v>5.678908345800273E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>0.3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>3.2317865716108861E-2</v>
+      <c r="F4">
+        <v>0.90199778270237452</v>
+      </c>
+      <c r="G4">
+        <v>0.10022197585581938</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>0.4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
+        <v>600</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
         <v>9.6000000000000014</v>
       </c>
-      <c r="C4">
-        <v>4.1129875597510225E-2</v>
+      <c r="F5">
+        <v>1.240283838482144</v>
+      </c>
+      <c r="G5">
+        <v>0.1291962331752233</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>0.5</v>
       </c>
-      <c r="B5">
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
         <v>12.5</v>
       </c>
-      <c r="C5">
-        <v>4.48998886412873E-2</v>
+      <c r="F6">
+        <v>1.7684739183827394</v>
+      </c>
+      <c r="G6">
+        <v>0.14147791347061914</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>0.6</v>
       </c>
-      <c r="B6">
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
         <v>7.1999999999999993</v>
       </c>
-      <c r="C6">
-        <v>7.0789201938651E-2</v>
+      <c r="F7">
+        <v>1.6101478193010728</v>
+      </c>
+      <c r="G7">
+        <v>0.22363164156959345</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>0.7</v>
       </c>
-      <c r="B7">
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
         <v>9.7999999999999989</v>
       </c>
-      <c r="C7">
-        <v>7.0768377580004774E-2</v>
+      <c r="F8">
+        <v>2.1915254960871429</v>
+      </c>
+      <c r="G8">
+        <v>0.22362505062113708</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>0.8</v>
       </c>
-      <c r="B8">
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
         <v>12.800000000000002</v>
       </c>
-      <c r="C8">
-        <v>7.0754858490424524E-2</v>
+      <c r="F9">
+        <v>2.8623458910481108</v>
+      </c>
+      <c r="G9">
+        <v>0.22362077273813361</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC9EAF7-1128-44E1-A0C9-83365DC5FFBA}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0.02</v>
       </c>
-      <c r="B1">
+      <c r="B2">
+        <v>110803</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>11080.3</v>
+      </c>
+      <c r="E2">
         <v>4.4321200000000003</v>
       </c>
-      <c r="C1">
-        <v>0.10004511495519509</v>
+      <c r="F2">
+        <v>0.44520750773543788</v>
+      </c>
+      <c r="G2">
+        <v>0.10045023774975358</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>0.04</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>51065</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>5106.5</v>
+      </c>
+      <c r="E3">
         <v>8.1704000000000008</v>
       </c>
-      <c r="C2">
-        <v>5.0195446850873786E-2</v>
+      <c r="F3">
+        <v>0.42421837583961403</v>
+      </c>
+      <c r="G3">
+        <v>5.1921371761433223E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>0.05</v>
       </c>
-      <c r="B3">
+      <c r="B4">
+        <v>38456</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>3845.6</v>
+      </c>
+      <c r="E4">
         <v>9.6140000000000008</v>
       </c>
-      <c r="C3">
-        <v>4.0323736738293654E-2</v>
+      <c r="F4">
+        <v>0.41463404780601415</v>
+      </c>
+      <c r="G4">
+        <v>4.3128151425630749E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B4">
+      <c r="B5">
+        <v>19562</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1956.2</v>
+      </c>
+      <c r="E5">
         <v>11.003625</v>
       </c>
-      <c r="C4">
-        <v>2.760852456294734E-2</v>
+      <c r="F5">
+        <v>0.38470320446416872</v>
+      </c>
+      <c r="G5">
+        <v>3.4961497185170227E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>0.1</v>
       </c>
-      <c r="B5">
+      <c r="B6">
+        <v>12182</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>1218.2</v>
+      </c>
+      <c r="E6">
         <v>12.182000000000002</v>
       </c>
-      <c r="C5">
-        <v>2.1956509901163591E-2</v>
+      <c r="F6">
+        <v>0.42565296850838485</v>
+      </c>
+      <c r="G6">
+        <v>3.4941140084418384E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>0.15</v>
       </c>
-      <c r="B6">
+      <c r="B7">
+        <v>5891</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>589.1</v>
+      </c>
+      <c r="E7">
         <v>13.25475</v>
       </c>
-      <c r="C6">
-        <v>1.8642109445863725E-2</v>
+      <c r="F7">
+        <v>0.57399073851413318</v>
+      </c>
+      <c r="G7">
+        <v>4.3304531470916709E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>0.2</v>
       </c>
-      <c r="B7">
+      <c r="B8">
+        <v>3568</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>324.36363636363637</v>
+      </c>
+      <c r="E8">
         <v>12.974545454545458</v>
       </c>
-      <c r="C7">
-        <v>1.9500488668132501E-2</v>
+      <c r="F8">
+        <v>0.73199433136946157</v>
+      </c>
+      <c r="G8">
+        <v>5.6417724530998289E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>0.25</v>
       </c>
-      <c r="B8">
+      <c r="B9">
+        <v>2465</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>205.41666666666666</v>
+      </c>
+      <c r="E9">
         <v>12.838541666666666</v>
       </c>
-      <c r="C8">
-        <v>2.1672090650986679E-2</v>
+      <c r="F9">
+        <v>0.9016417558558264</v>
+      </c>
+      <c r="G9">
+        <v>7.0229297007837185E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>0.3</v>
       </c>
-      <c r="B9">
+      <c r="B10">
+        <v>2052</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>146.57142857142858</v>
+      </c>
+      <c r="E10">
         <v>13.191428571428572</v>
       </c>
-      <c r="C9">
-        <v>2.306022287711678E-2</v>
+      <c r="F10">
+        <v>1.0931434112462191</v>
+      </c>
+      <c r="G10">
+        <v>8.2867704989425306E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>0.35</v>
       </c>
-      <c r="B10">
+      <c r="B11">
+        <v>2104</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>105.2</v>
+      </c>
+      <c r="E11">
         <v>12.886999999999999</v>
       </c>
-      <c r="C10">
-        <v>2.2537485048850312E-2</v>
+      <c r="F11">
+        <v>1.2586025383734134</v>
+      </c>
+      <c r="G11">
+        <v>9.7664509845069733E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>0.4</v>
       </c>
-      <c r="B11">
+      <c r="B12">
+        <v>2025</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>77.884615384615387</v>
+      </c>
+      <c r="E12">
         <v>12.461538461538463</v>
       </c>
-      <c r="C11">
-        <v>2.2777777777777779E-2</v>
+      <c r="F12">
+        <v>1.4134102031494129</v>
+      </c>
+      <c r="G12">
+        <v>0.11342180642557015</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>0.45</v>
       </c>
-      <c r="B12">
+      <c r="B13">
+        <v>2094</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>61.588235294117645</v>
+      </c>
+      <c r="E13">
         <v>12.471617647058824</v>
       </c>
-      <c r="C12">
-        <v>2.2300403701175833E-2</v>
+      <c r="F13">
+        <v>1.5901493619210723</v>
+      </c>
+      <c r="G13">
+        <v>0.12750145225115014</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>0.5</v>
       </c>
-      <c r="B13">
+      <c r="B14">
+        <v>2213</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>49.177777777777777</v>
+      </c>
+      <c r="E14">
         <v>12.294444444444444</v>
       </c>
-      <c r="C13">
-        <v>2.1630424924676157E-2</v>
+      <c r="F14">
+        <v>1.7538613300196431</v>
+      </c>
+      <c r="G14">
+        <v>0.14265478508971341</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B14">
+      <c r="B15">
+        <v>2463</v>
+      </c>
+      <c r="C15">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>41.745762711864408</v>
+      </c>
+      <c r="E15">
         <v>12.628093220338986</v>
       </c>
-      <c r="C14">
-        <v>2.0475157452199876E-2</v>
+      <c r="F15">
+        <v>1.9550209402164627</v>
+      </c>
+      <c r="G15">
+        <v>0.15481521288326242</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>0.6</v>
       </c>
-      <c r="B15">
+      <c r="B16">
+        <v>2577</v>
+      </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>34.36</v>
+      </c>
+      <c r="E16">
         <v>12.3696</v>
       </c>
-      <c r="C15">
-        <v>1.9978969670074054E-2</v>
+      <c r="F16">
+        <v>2.1106293084821881</v>
+      </c>
+      <c r="G16">
+        <v>0.17063036060035799</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>0.65</v>
       </c>
-      <c r="B16">
+      <c r="B17">
+        <v>2579</v>
+      </c>
+      <c r="C17">
+        <v>89</v>
+      </c>
+      <c r="D17">
+        <v>28.977528089887642</v>
+      </c>
+      <c r="E17">
         <v>12.243005617977531</v>
       </c>
-      <c r="C16">
-        <v>1.9930244465489699E-2</v>
+      <c r="F17">
+        <v>2.2746623841247966</v>
+      </c>
+      <c r="G17">
+        <v>0.18579280734664544</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>0.7</v>
       </c>
-      <c r="B17">
+      <c r="B18">
+        <v>2574</v>
+      </c>
+      <c r="C18">
+        <v>105</v>
+      </c>
+      <c r="D18">
+        <v>24.514285714285716</v>
+      </c>
+      <c r="E18">
         <v>12.011999999999999</v>
       </c>
-      <c r="C17">
-        <v>1.9916416690923869E-2</v>
+      <c r="F18">
+        <v>2.4263260008498442</v>
+      </c>
+      <c r="G18">
+        <v>0.20199184156259115</v>
       </c>
     </row>
   </sheetData>

--- a/Task 15.xlsx
+++ b/Task 15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Lab\second-year-radioactivity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F99DF01-4DD5-4A93-A63E-37725A6B60D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A42F48D-A5F1-40CF-BF58-8113BB3AC504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="450" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C4D527E3-8FD5-46DC-862E-C53D60B70632}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C4D527E3-8FD5-46DC-862E-C53D60B70632}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+  <si>
+    <t>Preliminaries</t>
+  </si>
   <si>
     <t>ruler error in m</t>
   </si>
@@ -53,19 +58,16 @@
     <t>count rate</t>
   </si>
   <si>
+    <t>count rate * distance ^2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Error associated </t>
   </si>
   <si>
-    <t>count rate * distance ^2</t>
-  </si>
-  <si>
-    <t>Preliminaries</t>
+    <t>relative error</t>
   </si>
   <si>
     <t>Data Recording</t>
-  </si>
-  <si>
-    <t>relative error</t>
   </si>
 </sst>
 </file>
@@ -76,7 +78,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +183,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1051,7 +1053,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2167,7 +2169,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2608,7 +2610,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
@@ -2647,7 +2649,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$3:$C$10</c15:sqref>
@@ -2685,7 +2687,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-107A-409A-9B73-213D766E9EF4}"/>
                   </c:ext>
@@ -2720,7 +2722,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
@@ -2759,7 +2761,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$3:$D$10</c15:sqref>
@@ -2797,7 +2799,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-107A-409A-9B73-213D766E9EF4}"/>
                   </c:ext>
@@ -2832,7 +2834,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3:$A$10</c15:sqref>
@@ -2871,7 +2873,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$3:$F$10</c15:sqref>
@@ -2909,7 +2911,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-107A-409A-9B73-213D766E9EF4}"/>
                   </c:ext>
@@ -3129,7 +3131,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3718,7 +3720,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$15:$A$31</c15:sqref>
@@ -3784,7 +3786,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$15:$C$31</c15:sqref>
@@ -3849,7 +3851,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-DA86-4F31-9DEA-92D916F137E6}"/>
                   </c:ext>
@@ -3884,7 +3886,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$15:$A$31</c15:sqref>
@@ -3950,7 +3952,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$15:$D$31</c15:sqref>
@@ -4015,7 +4017,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-DA86-4F31-9DEA-92D916F137E6}"/>
                   </c:ext>
@@ -4050,7 +4052,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$15:$A$31</c15:sqref>
@@ -4116,7 +4118,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$15:$F$31</c15:sqref>
@@ -4181,7 +4183,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-DA86-4F31-9DEA-92D916F137E6}"/>
                   </c:ext>
@@ -7071,55 +7073,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1680A33E-C7E3-471F-A535-6D35A28993FB}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:G31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1" s="5">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="5" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>0.1</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>3.5630958693126741E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>0.2</v>
       </c>
@@ -7173,7 +7176,7 @@
         <v>5.678908345800273E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>0.3</v>
       </c>
@@ -7200,7 +7203,7 @@
         <v>0.10022197585581938</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>0.4</v>
       </c>
@@ -7227,7 +7230,7 @@
         <v>0.1291962331752233</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>0.5</v>
       </c>
@@ -7254,7 +7257,7 @@
         <v>0.14147791347061914</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>0.6</v>
       </c>
@@ -7281,7 +7284,7 @@
         <v>0.22363164156959345</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>0.7</v>
       </c>
@@ -7308,7 +7311,7 @@
         <v>0.22362505062113708</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>0.8</v>
       </c>
@@ -7335,38 +7338,41 @@
         <v>0.22362077273813361</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="23.25">
       <c r="A13" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="5" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="5" customFormat="1">
       <c r="A15" s="9">
         <v>0.02</v>
       </c>
@@ -7393,7 +7399,7 @@
         <v>0.10045023774975358</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="5" customFormat="1">
       <c r="A16" s="9">
         <v>0.04</v>
       </c>
@@ -7420,7 +7426,7 @@
         <v>5.1921371761433223E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="9">
         <v>0.05</v>
       </c>
@@ -7447,7 +7453,7 @@
         <v>4.3128151425630749E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="9">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -7474,7 +7480,7 @@
         <v>3.4961497185170227E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="9">
         <v>0.1</v>
       </c>
@@ -7501,7 +7507,7 @@
         <v>3.4941140084418384E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="9">
         <v>0.15</v>
       </c>
@@ -7528,7 +7534,7 @@
         <v>4.3304531470916709E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="9">
         <v>0.2</v>
       </c>
@@ -7555,7 +7561,7 @@
         <v>5.6417724530998289E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="9">
         <v>0.25</v>
       </c>
@@ -7582,7 +7588,7 @@
         <v>7.0229297007837185E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="9">
         <v>0.3</v>
       </c>
@@ -7609,7 +7615,7 @@
         <v>8.2867704989425306E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1">
       <c r="A24" s="9">
         <v>0.35</v>
       </c>
@@ -7636,7 +7642,7 @@
         <v>9.7664509845069733E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="9">
         <v>0.4</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>0.11342180642557015</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="9">
         <v>0.45</v>
       </c>
@@ -7690,7 +7696,7 @@
         <v>0.12750145225115014</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="9">
         <v>0.5</v>
       </c>
@@ -7717,7 +7723,7 @@
         <v>0.14265478508971341</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="9">
         <v>0.55000000000000004</v>
       </c>
@@ -7744,7 +7750,7 @@
         <v>0.15481521288326242</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="9">
         <v>0.6</v>
       </c>
@@ -7771,7 +7777,7 @@
         <v>0.17063036060035799</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="9">
         <v>0.65</v>
       </c>
@@ -7798,7 +7804,7 @@
         <v>0.18579280734664544</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="9">
         <v>0.7</v>
       </c>
@@ -7825,52 +7831,52 @@
         <v>0.20199184156259115</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="2"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="2"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="2"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="2"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="2"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="2"/>
     </row>
   </sheetData>
@@ -7882,646 +7888,302 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711FBC4D-91B1-4D97-AA01-30C3E1C4BB86}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B1">
+        <v>11.5</v>
+      </c>
+      <c r="C1">
+        <v>2.2067091374694817E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="B2">
+        <v>12.800000000000002</v>
+      </c>
+      <c r="C2">
+        <v>2.0310096011589902E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="B3">
         <v>9</v>
       </c>
+      <c r="C3">
+        <v>3.2317865716108861E-2</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="B2">
-        <v>11500</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1150</v>
-      </c>
-      <c r="E2">
-        <v>11.500000000000002</v>
-      </c>
-      <c r="F2">
-        <v>0.40975602497095764</v>
-      </c>
-      <c r="G2">
-        <v>3.5630958693126741E-2</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="B4">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="C4">
+        <v>4.1129875597510225E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="B3">
-        <v>3200</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>320</v>
-      </c>
-      <c r="E3">
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>12.5</v>
+      </c>
+      <c r="C5">
+        <v>4.48998886412873E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="B6">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="C6">
+        <v>7.0789201938651E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="B7">
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="C7">
+        <v>7.0768377580004774E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="B8">
         <v>12.800000000000002</v>
       </c>
-      <c r="F3">
-        <v>0.72690026826243515</v>
-      </c>
-      <c r="G3">
-        <v>5.678908345800273E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>0.90199778270237452</v>
-      </c>
-      <c r="G4">
-        <v>0.10022197585581938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="B5">
-        <v>600</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="F5">
-        <v>1.240283838482144</v>
-      </c>
-      <c r="G5">
-        <v>0.1291962331752233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="B6">
-        <v>500</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>12.5</v>
-      </c>
-      <c r="F6">
-        <v>1.7684739183827394</v>
-      </c>
-      <c r="G6">
-        <v>0.14147791347061914</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>7.1999999999999993</v>
-      </c>
-      <c r="F7">
-        <v>1.6101478193010728</v>
-      </c>
-      <c r="G7">
-        <v>0.22363164156959345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
       <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>9.7999999999999989</v>
-      </c>
-      <c r="F8">
-        <v>2.1915254960871429</v>
-      </c>
-      <c r="G8">
-        <v>0.22362505062113708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.8</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>12.800000000000002</v>
-      </c>
-      <c r="F9">
-        <v>2.8623458910481108</v>
-      </c>
-      <c r="G9">
-        <v>0.22362077273813361</v>
+        <v>7.0754858490424524E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC9EAF7-1128-44E1-A0C9-83365DC5FFBA}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D14" sqref="B14:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>0.02</v>
+      </c>
+      <c r="B1">
+        <v>4.4321200000000003</v>
+      </c>
+      <c r="C1">
+        <v>0.10004511495519509</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="B2">
-        <v>110803</v>
+        <v>8.1704000000000008</v>
       </c>
       <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>11080.3</v>
-      </c>
-      <c r="E2">
-        <v>4.4321200000000003</v>
-      </c>
-      <c r="F2">
-        <v>0.44520750773543788</v>
-      </c>
-      <c r="G2">
-        <v>0.10045023774975358</v>
+        <v>5.0195446850873786E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="B3">
-        <v>51065</v>
+        <v>9.6140000000000008</v>
       </c>
       <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>5106.5</v>
-      </c>
-      <c r="E3">
-        <v>8.1704000000000008</v>
-      </c>
-      <c r="F3">
-        <v>0.42421837583961403</v>
-      </c>
-      <c r="G3">
-        <v>5.1921371761433223E-2</v>
+        <v>4.0323736738293654E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="B4">
-        <v>38456</v>
+        <v>11.003625</v>
       </c>
       <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>3845.6</v>
-      </c>
-      <c r="E4">
-        <v>9.6140000000000008</v>
-      </c>
-      <c r="F4">
-        <v>0.41463404780601415</v>
-      </c>
-      <c r="G4">
-        <v>4.3128151425630749E-2</v>
+        <v>2.760852456294734E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="B5">
-        <v>19562</v>
+        <v>12.182000000000002</v>
       </c>
       <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1956.2</v>
-      </c>
-      <c r="E5">
-        <v>11.003625</v>
-      </c>
-      <c r="F5">
-        <v>0.38470320446416872</v>
-      </c>
-      <c r="G5">
-        <v>3.4961497185170227E-2</v>
+        <v>2.1956509901163591E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="B6">
-        <v>12182</v>
+        <v>13.25475</v>
       </c>
       <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>1218.2</v>
-      </c>
-      <c r="E6">
-        <v>12.182000000000002</v>
-      </c>
-      <c r="F6">
-        <v>0.42565296850838485</v>
-      </c>
-      <c r="G6">
-        <v>3.4941140084418384E-2</v>
+        <v>1.8642109445863725E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="B7">
-        <v>5891</v>
+        <v>12.974545454545458</v>
       </c>
       <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>589.1</v>
-      </c>
-      <c r="E7">
-        <v>13.25475</v>
-      </c>
-      <c r="F7">
-        <v>0.57399073851413318</v>
-      </c>
-      <c r="G7">
-        <v>4.3304531470916709E-2</v>
+        <v>1.9500488668132501E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="B8">
-        <v>3568</v>
+        <v>12.838541666666666</v>
       </c>
       <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>324.36363636363637</v>
-      </c>
-      <c r="E8">
-        <v>12.974545454545458</v>
-      </c>
-      <c r="F8">
-        <v>0.73199433136946157</v>
-      </c>
-      <c r="G8">
-        <v>5.6417724530998289E-2</v>
+        <v>2.1672090650986679E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="B9">
-        <v>2465</v>
+        <v>13.191428571428572</v>
       </c>
       <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>205.41666666666666</v>
-      </c>
-      <c r="E9">
-        <v>12.838541666666666</v>
-      </c>
-      <c r="F9">
-        <v>0.9016417558558264</v>
-      </c>
-      <c r="G9">
-        <v>7.0229297007837185E-2</v>
+        <v>2.306022287711678E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="B10">
-        <v>2052</v>
+        <v>12.886999999999999</v>
       </c>
       <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>146.57142857142858</v>
-      </c>
-      <c r="E10">
-        <v>13.191428571428572</v>
-      </c>
-      <c r="F10">
-        <v>1.0931434112462191</v>
-      </c>
-      <c r="G10">
-        <v>8.2867704989425306E-2</v>
+        <v>2.2537485048850312E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="B11">
-        <v>2104</v>
+        <v>12.461538461538463</v>
       </c>
       <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>105.2</v>
-      </c>
-      <c r="E11">
-        <v>12.886999999999999</v>
-      </c>
-      <c r="F11">
-        <v>1.2586025383734134</v>
-      </c>
-      <c r="G11">
-        <v>9.7664509845069733E-2</v>
+        <v>2.2777777777777779E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="B12">
-        <v>2025</v>
+        <v>12.471617647058824</v>
       </c>
       <c r="C12">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>77.884615384615387</v>
-      </c>
-      <c r="E12">
-        <v>12.461538461538463</v>
-      </c>
-      <c r="F12">
-        <v>1.4134102031494129</v>
-      </c>
-      <c r="G12">
-        <v>0.11342180642557015</v>
+        <v>2.2300403701175833E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="B13">
-        <v>2094</v>
+        <v>12.294444444444444</v>
       </c>
       <c r="C13">
-        <v>34</v>
-      </c>
-      <c r="D13">
-        <v>61.588235294117645</v>
-      </c>
-      <c r="E13">
-        <v>12.471617647058824</v>
-      </c>
-      <c r="F13">
-        <v>1.5901493619210723</v>
-      </c>
-      <c r="G13">
-        <v>0.12750145225115014</v>
+        <v>2.1630424924676157E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B14">
-        <v>2213</v>
+        <v>12.628093220338986</v>
       </c>
       <c r="C14">
-        <v>45</v>
-      </c>
-      <c r="D14">
-        <v>49.177777777777777</v>
-      </c>
-      <c r="E14">
-        <v>12.294444444444444</v>
-      </c>
-      <c r="F14">
-        <v>1.7538613300196431</v>
-      </c>
-      <c r="G14">
-        <v>0.14265478508971341</v>
+        <v>2.0475157452199876E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="B15">
-        <v>2463</v>
+        <v>12.3696</v>
       </c>
       <c r="C15">
-        <v>59</v>
-      </c>
-      <c r="D15">
-        <v>41.745762711864408</v>
-      </c>
-      <c r="E15">
-        <v>12.628093220338986</v>
-      </c>
-      <c r="F15">
-        <v>1.9550209402164627</v>
-      </c>
-      <c r="G15">
-        <v>0.15481521288326242</v>
+        <v>1.9978969670074054E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="B16">
-        <v>2577</v>
+        <v>12.243005617977531</v>
       </c>
       <c r="C16">
-        <v>75</v>
-      </c>
-      <c r="D16">
-        <v>34.36</v>
-      </c>
-      <c r="E16">
-        <v>12.3696</v>
-      </c>
-      <c r="F16">
-        <v>2.1106293084821881</v>
-      </c>
-      <c r="G16">
-        <v>0.17063036060035799</v>
+        <v>1.9930244465489699E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="B17">
-        <v>2579</v>
+        <v>12.011999999999999</v>
       </c>
       <c r="C17">
-        <v>89</v>
-      </c>
-      <c r="D17">
-        <v>28.977528089887642</v>
-      </c>
-      <c r="E17">
-        <v>12.243005617977531</v>
-      </c>
-      <c r="F17">
-        <v>2.2746623841247966</v>
-      </c>
-      <c r="G17">
-        <v>0.18579280734664544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.7</v>
-      </c>
-      <c r="B18">
-        <v>2574</v>
-      </c>
-      <c r="C18">
-        <v>105</v>
-      </c>
-      <c r="D18">
-        <v>24.514285714285716</v>
-      </c>
-      <c r="E18">
-        <v>12.011999999999999</v>
-      </c>
-      <c r="F18">
-        <v>2.4263260008498442</v>
-      </c>
-      <c r="G18">
-        <v>0.20199184156259115</v>
+        <v>1.9916416690923869E-2</v>
       </c>
     </row>
   </sheetData>
